--- a/Simulador_Fiis.xlsx
+++ b/Simulador_Fiis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\_Educacao\DIO\Excel+IA\Tarefa_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4580EE92-9A0C-468F-A6B9-030CC9E9C2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94205E6-14A9-458C-8463-44C23B0BF51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulador" sheetId="1" r:id="rId1"/>
     <sheet name="Informações" sheetId="3" r:id="rId2"/>
-    <sheet name="Tabelas_aux" sheetId="2" r:id="rId3"/>
+    <sheet name="Tabelas_aux" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Simulador!$C$40:$C$45</definedName>
@@ -216,9 +216,6 @@
     <t>Informe seus rendimentos, seu perfil de investidor e por quanto tempo que deseja investir</t>
   </si>
   <si>
-    <t>Informe o valor de aporte para a sugestão de investimento com base em seu perfilde investidor</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -301,13 +298,16 @@
     <t>Defina suas metas com Fundos Imobiliários</t>
   </si>
   <si>
-    <t>Simulação de Cenários com os redimentos acumulados</t>
-  </si>
-  <si>
     <t>Cenário selecionado</t>
   </si>
   <si>
     <t>Outros Cenários</t>
+  </si>
+  <si>
+    <t>Simulação de cenários com os redimentos acumulados</t>
+  </si>
+  <si>
+    <t>Informe o valor de aporte para a sugestão de investimento com base em seu perfil de investidor</t>
   </si>
 </sst>
 </file>
@@ -318,8 +318,8 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Sugestão de Investimento: &quot;\ &quot;R$&quot;\ #,###.00\ &quot;Mensais&quot;\."/>
-    <numFmt numFmtId="170" formatCode="&quot;Patrimônio Acumulado em&quot;\ ##\ &quot;ano (s)&quot;"/>
-    <numFmt numFmtId="171" formatCode="&quot;Dividendos Mensais Médios no ano&quot;\ ##"/>
+    <numFmt numFmtId="165" formatCode="&quot;Patrimônio Acumulado em&quot;\ ##\ &quot;ano (s)&quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;Dividendos Mensais Médios no ano&quot;\ ##"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -827,10 +827,36 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="12" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="30" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="30" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="30" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,32 +871,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="11" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="30" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="30" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="30" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="8" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Hiperlink" xfId="10" builtinId="8"/>
@@ -3842,8 +3842,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="361950" y="7410450"/>
-              <a:ext cx="5591175" cy="1904999"/>
+              <a:off x="361950" y="8553450"/>
+              <a:ext cx="5362575" cy="1904999"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4184,7 +4184,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>296334</xdr:colOff>
+      <xdr:colOff>74084</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -4207,8 +4207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5894917" y="1545168"/>
-          <a:ext cx="3206750" cy="814916"/>
+          <a:off x="5799667" y="1545168"/>
+          <a:ext cx="3132666" cy="814916"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4248,7 +4248,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1200">
+            <a:rPr lang="pt-BR" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -4257,7 +4257,7 @@
             <a:t>Material desenvolvido para fins</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1200" baseline="0">
+            <a:rPr lang="pt-BR" sz="1050" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -4266,7 +4266,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1200">
+            <a:rPr lang="pt-BR" sz="1050">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -4275,7 +4275,7 @@
             <a:t>didáticos, as simulações não tem objetivo de</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1200" baseline="0">
+            <a:rPr lang="pt-BR" sz="1050" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -4283,7 +4283,7 @@
             </a:rPr>
             <a:t> prever qualquer retorno sobre investimentos em fundos imobiliários.</a:t>
           </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1200">
+          <a:endParaRPr lang="pt-BR" sz="1050">
             <a:solidFill>
               <a:schemeClr val="accent5"/>
             </a:solidFill>
@@ -4757,11 +4757,10 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" hidden="1"/>
@@ -4771,24 +4770,24 @@
       <c r="A1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="35"/>
@@ -4799,23 +4798,23 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
@@ -4826,11 +4825,11 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49">
+      <c r="D8" s="40"/>
+      <c r="E8" s="41">
         <v>5000</v>
       </c>
       <c r="F8" s="27"/>
@@ -4838,11 +4837,11 @@
       <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="50" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="42" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="27"/>
@@ -4850,11 +4849,11 @@
       <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="50">
+      <c r="D10" s="40"/>
+      <c r="E10" s="42">
         <v>10</v>
       </c>
       <c r="F10" s="27"/>
@@ -4862,11 +4861,11 @@
       <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="51">
+      <c r="D11" s="40"/>
+      <c r="E11" s="43">
         <f>VLOOKUP(E10,Tabelas_aux!G2:I42,3,0)</f>
         <v>8.355155683635207E-3</v>
       </c>
@@ -4883,14 +4882,14 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="45"/>
+      <c r="C13" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
@@ -4901,15 +4900,15 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="C15" s="41">
+      <c r="C15" s="54">
         <f>E8*30%</f>
         <v>1500</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
@@ -4920,22 +4919,22 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="C17" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="3:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
@@ -5084,22 +5083,22 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="C30" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="3:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="10"/>
@@ -5110,39 +5109,39 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
+      <c r="C33" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:8" ht="6.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="54">
+      <c r="C35" s="46">
         <f>qtd_anos</f>
         <v>10</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="47">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>307728.70874785964</v>
       </c>
-      <c r="E35" s="56">
+      <c r="E35" s="49">
         <f>qtd_anos</f>
         <v>10</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="55">
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="47">
         <f>patrimonio*taxa_mensal</f>
         <v>2571.1212699124026</v>
       </c>
@@ -5153,14 +5152,14 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
+      <c r="C37" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
     </row>
     <row r="38" spans="1:8" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
@@ -5170,7 +5169,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C39" s="32" t="s">
         <v>1</v>
       </c>
@@ -5195,11 +5194,11 @@
       <c r="C40" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="48">
         <f t="shared" ref="D40:D45" si="1">FV($A40,$B40*12,$D$20*-1)</f>
         <v>41680.152965815141</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="48">
         <f t="shared" ref="E40:E45" si="2">D40*A40</f>
         <v>520.83673499999918</v>
       </c>
@@ -5218,11 +5217,11 @@
       <c r="C41" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="48">
         <f t="shared" si="1"/>
         <v>112099.30468098739</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="48">
         <f t="shared" si="2"/>
         <v>807.93593234999412</v>
       </c>
@@ -5241,11 +5240,11 @@
       <c r="C42" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="57">
+      <c r="D42" s="48">
         <f t="shared" si="1"/>
         <v>307728.70874785964</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="48">
         <f t="shared" si="2"/>
         <v>2571.1212699124026</v>
       </c>
@@ -5264,11 +5263,11 @@
       <c r="C43" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="57">
+      <c r="D43" s="48">
         <f t="shared" si="1"/>
         <v>597665.95492207678</v>
       </c>
-      <c r="E43" s="57">
+      <c r="E43" s="48">
         <f t="shared" si="2"/>
         <v>4765.8722541235074</v>
       </c>
@@ -5287,11 +5286,11 @@
       <c r="C44" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="57">
+      <c r="D44" s="48">
         <f t="shared" si="1"/>
         <v>1077388.8421688529</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="48">
         <f t="shared" si="2"/>
         <v>8591.2499239884673</v>
       </c>
@@ -5310,11 +5309,11 @@
       <c r="C45" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="48">
         <f t="shared" si="1"/>
         <v>3094264.9710423909</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="48">
         <f t="shared" si="2"/>
         <v>24674.103403329864</v>
       </c>
@@ -5420,8 +5419,9 @@
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2hoLIof3FHD2aja0/NIv2wl79/RxlnsFCYE6gIv36Ikics3+wjX6vGZOMYaV6rS7vS+eYIgewPTwzQ9tpcBxng==" saltValue="r3OSR6M+2mQFN5KuZ09o+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DCcaHvlxRHUZcpIknjTcd7UYrVH549Ml9rcsGRRn6Ctj/chWwQxq3s6Zhxzc5z2zuoNEw+MiMM0stbhIlaIHcg==" saltValue="bHIh51Fgld/dTD8+0WS6Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
+    <mergeCell ref="E35:G35"/>
     <mergeCell ref="C17:H18"/>
     <mergeCell ref="C30:H31"/>
     <mergeCell ref="C2:H2"/>
@@ -5429,9 +5429,8 @@
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C3:H3"/>
-    <mergeCell ref="E35:G35"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{313F9A6C-A941-4D3B-8BF1-18FDD0797F4D}">
       <formula1>"Conservador, Moderado, Agressivo"</formula1>
     </dataValidation>
@@ -5447,7 +5446,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD06FA4A-62AC-4DCA-A4D5-5BBDCA75164E}">
           <x14:formula1>
             <xm:f>Tabelas_aux!$G$3:$G$42</xm:f>
@@ -5480,16 +5479,16 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="2:11" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="2:11" s="18" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="B4" s="20"/>
@@ -5497,11 +5496,11 @@
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="2:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -5511,9 +5510,9 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="2:11" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -5523,9 +5522,9 @@
       <c r="K6" s="19"/>
     </row>
     <row r="7" spans="2:11" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -5535,9 +5534,9 @@
       <c r="K7" s="19"/>
     </row>
     <row r="8" spans="2:11" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -5547,9 +5546,9 @@
       <c r="K8" s="19"/>
     </row>
     <row r="9" spans="2:11" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -5559,9 +5558,9 @@
       <c r="K9" s="19"/>
     </row>
     <row r="10" spans="2:11" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -5571,9 +5570,9 @@
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="2:11" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -5665,72 +5664,72 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+      <c r="B20" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
     </row>
     <row r="23" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
     </row>
     <row r="24" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
     </row>
     <row r="25" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
     </row>
     <row r="26" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
     </row>
     <row r="27" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
     </row>
     <row r="28" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
     </row>
     <row r="29" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
     </row>
     <row r="30" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
     </row>
     <row r="31" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
     </row>
     <row r="32" spans="2:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3"/>
     <row r="45" x14ac:dyDescent="0.25"/>
     <row r="46" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="i8vj/O2QScoGHeXhGne/Yn9TZ8ano8oWTWrAAiZOjwKosk8N5TP2klzv28oS2jIKyD+DlbV/asBeD+c6SHXp2w==" saltValue="M1Jd3xI2rsj1BqVUs4VyOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+BfoP543PeGF7ivDzsGh+fmo916ZciNVJSJB6xIUC7dnfk5Tbh8EEIyLbtFb/iM/f/LMwMGZTHpmTJHPAQ87Gg==" saltValue="ehH81UccTuCKE9zKdgUC7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="B5:D11"/>
     <mergeCell ref="B20:D31"/>
@@ -5743,21 +5742,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F6D2A-64FF-4FA6-A773-22874564DD4E}">
-  <dimension ref="B2:I42"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -6497,8 +6501,11 @@
         <v>7.9741404289037643E-3</v>
       </c>
     </row>
+    <row r="43" spans="7:9" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kunnuoGH0bRYN29Zpzsj+8LeEPDrwJp9nQ83EjY3slqntTsUzSIoX5+PhIATa1sRlJIaK6MNJj/uHA7Jd8uipw==" saltValue="wmEIkCKeQxz1PLohXDrEYA==" spinCount="100000" sheet="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g+0hwY4ImSzE4Vibm7YgbZgS2eQdXuHkN1JlE/TyHxpbr3EYAKsvRUNU89c6NyYbEYgDWyhRtG7iXkoXHn7/XA==" saltValue="sDs7raqvcxyTwpRs6Pilgg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
